--- a/data/pca/factorExposure/factorExposure_2015-01-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01303808418794331</v>
+        <v>0.009918666664514702</v>
       </c>
       <c r="C2">
-        <v>0.03845570020157956</v>
+        <v>-0.05408411664633785</v>
       </c>
       <c r="D2">
-        <v>-0.1301502812306639</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.07710942494942503</v>
+      </c>
+      <c r="E2">
+        <v>0.09766868736881426</v>
+      </c>
+      <c r="F2">
+        <v>0.1426611533616483</v>
+      </c>
+      <c r="G2">
+        <v>-0.06271973751107399</v>
+      </c>
+      <c r="H2">
+        <v>-0.07228456772510868</v>
+      </c>
+      <c r="I2">
+        <v>-0.02549607483634839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03841504225204908</v>
+        <v>0.01801817518150931</v>
       </c>
       <c r="C4">
-        <v>0.1225842150070208</v>
+        <v>-0.1438427112169691</v>
       </c>
       <c r="D4">
-        <v>-0.084869929758012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.03876620684295035</v>
+      </c>
+      <c r="E4">
+        <v>0.07133165919755072</v>
+      </c>
+      <c r="F4">
+        <v>0.1048035431530858</v>
+      </c>
+      <c r="G4">
+        <v>0.0568784609646299</v>
+      </c>
+      <c r="H4">
+        <v>0.01543691702493462</v>
+      </c>
+      <c r="I4">
+        <v>-0.07289490374785211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.01967028580863815</v>
+        <v>0.02880867081440238</v>
       </c>
       <c r="C6">
-        <v>0.04763738085785087</v>
+        <v>-0.0572184737771511</v>
       </c>
       <c r="D6">
-        <v>-0.08050191350018268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.04914642486995899</v>
+      </c>
+      <c r="E6">
+        <v>0.08804449290286778</v>
+      </c>
+      <c r="F6">
+        <v>0.05808699490800975</v>
+      </c>
+      <c r="G6">
+        <v>-0.03979424577378614</v>
+      </c>
+      <c r="H6">
+        <v>0.04154648209457322</v>
+      </c>
+      <c r="I6">
+        <v>-0.01963889716625537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.01097516210460579</v>
+        <v>0.004094206532832133</v>
       </c>
       <c r="C7">
-        <v>0.04436592661403327</v>
+        <v>-0.05783195602246355</v>
       </c>
       <c r="D7">
-        <v>-0.06860698103740069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04433521983917363</v>
+      </c>
+      <c r="E7">
+        <v>0.06829901765518342</v>
+      </c>
+      <c r="F7">
+        <v>0.01035297568867132</v>
+      </c>
+      <c r="G7">
+        <v>0.01278185076930077</v>
+      </c>
+      <c r="H7">
+        <v>0.04138490824583529</v>
+      </c>
+      <c r="I7">
+        <v>-0.08408891287144851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.003722219414239233</v>
+        <v>-0.007368861569852315</v>
       </c>
       <c r="C8">
-        <v>0.04597490356258614</v>
+        <v>-0.05471027688704395</v>
       </c>
       <c r="D8">
-        <v>-0.06948979695275055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02233826735489531</v>
+      </c>
+      <c r="E8">
+        <v>0.06095776247718569</v>
+      </c>
+      <c r="F8">
+        <v>0.08384768597140502</v>
+      </c>
+      <c r="G8">
+        <v>0.02825234860065248</v>
+      </c>
+      <c r="H8">
+        <v>-0.05036937312063093</v>
+      </c>
+      <c r="I8">
+        <v>-0.02724994431573563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0224613014170361</v>
+        <v>0.01013177672254577</v>
       </c>
       <c r="C9">
-        <v>0.1009383615802715</v>
+        <v>-0.1143790483237377</v>
       </c>
       <c r="D9">
-        <v>-0.08118106346770025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03645306901044686</v>
+      </c>
+      <c r="E9">
+        <v>0.06268846744712842</v>
+      </c>
+      <c r="F9">
+        <v>0.07193503868240143</v>
+      </c>
+      <c r="G9">
+        <v>0.004111638053235618</v>
+      </c>
+      <c r="H9">
+        <v>0.03378840742630776</v>
+      </c>
+      <c r="I9">
+        <v>-0.07615703775042588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.2176898680913072</v>
+        <v>0.2409045089360777</v>
       </c>
       <c r="C10">
-        <v>-0.1124167898581854</v>
+        <v>0.0822236646279941</v>
       </c>
       <c r="D10">
-        <v>0.04172351338056359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01549711404069694</v>
+      </c>
+      <c r="E10">
+        <v>-0.02052960719210849</v>
+      </c>
+      <c r="F10">
+        <v>0.01309274083942037</v>
+      </c>
+      <c r="G10">
+        <v>0.002037859463240768</v>
+      </c>
+      <c r="H10">
+        <v>0.02976772742471478</v>
+      </c>
+      <c r="I10">
+        <v>-0.04998566807396807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.008938077606093622</v>
+        <v>0.01111426891184933</v>
       </c>
       <c r="C11">
-        <v>0.04693982731011773</v>
+        <v>-0.06668506889483446</v>
       </c>
       <c r="D11">
-        <v>-0.04642382123075937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02082854334323859</v>
+      </c>
+      <c r="E11">
+        <v>0.05060666697071028</v>
+      </c>
+      <c r="F11">
+        <v>0.00551627848075485</v>
+      </c>
+      <c r="G11">
+        <v>0.0107173314970739</v>
+      </c>
+      <c r="H11">
+        <v>0.03240936618615859</v>
+      </c>
+      <c r="I11">
+        <v>-0.043325375424048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01092550976761089</v>
+        <v>0.0121471332313242</v>
       </c>
       <c r="C12">
-        <v>0.05066656876284055</v>
+        <v>-0.05781118686496495</v>
       </c>
       <c r="D12">
-        <v>-0.0484928347857465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02540599045970772</v>
+      </c>
+      <c r="E12">
+        <v>0.03697771563014273</v>
+      </c>
+      <c r="F12">
+        <v>-0.006636293207519188</v>
+      </c>
+      <c r="G12">
+        <v>-0.01714394061794385</v>
+      </c>
+      <c r="H12">
+        <v>0.02623495469287892</v>
+      </c>
+      <c r="I12">
+        <v>-0.0520461367941346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01746699048377839</v>
+        <v>0.00331424074408945</v>
       </c>
       <c r="C13">
-        <v>0.06116520218819065</v>
+        <v>-0.09046787824845483</v>
       </c>
       <c r="D13">
-        <v>-0.1255444282066669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0869978419939334</v>
+      </c>
+      <c r="E13">
+        <v>0.1103413189509044</v>
+      </c>
+      <c r="F13">
+        <v>0.05009646665262808</v>
+      </c>
+      <c r="G13">
+        <v>-0.1079049603315023</v>
+      </c>
+      <c r="H13">
+        <v>0.02646674206400932</v>
+      </c>
+      <c r="I13">
+        <v>-0.0924877101594056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.006577848383068101</v>
+        <v>0.003816256780085316</v>
       </c>
       <c r="C14">
-        <v>0.02774699589802871</v>
+        <v>-0.05100191130643837</v>
       </c>
       <c r="D14">
-        <v>-0.05973150849179981</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03029797595790856</v>
+      </c>
+      <c r="E14">
+        <v>0.1028305025333821</v>
+      </c>
+      <c r="F14">
+        <v>0.02218970330328875</v>
+      </c>
+      <c r="G14">
+        <v>-0.04218392405850984</v>
+      </c>
+      <c r="H14">
+        <v>0.05541869874027513</v>
+      </c>
+      <c r="I14">
+        <v>-0.1399496730925701</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001072848001428007</v>
+        <v>-0.004592006362765782</v>
       </c>
       <c r="C15">
-        <v>0.0232397490379502</v>
+        <v>-0.04473433447148517</v>
       </c>
       <c r="D15">
-        <v>-0.06733431217902397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.03919774271977435</v>
+      </c>
+      <c r="E15">
+        <v>0.06791285550114895</v>
+      </c>
+      <c r="F15">
+        <v>0.02054066541681614</v>
+      </c>
+      <c r="G15">
+        <v>0.004608498236167761</v>
+      </c>
+      <c r="H15">
+        <v>0.008038919070464879</v>
+      </c>
+      <c r="I15">
+        <v>-0.05388509063103086</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.00755220600013502</v>
+        <v>0.009579113937569014</v>
       </c>
       <c r="C16">
-        <v>0.04413094786108066</v>
+        <v>-0.05760926923459667</v>
       </c>
       <c r="D16">
-        <v>-0.03946985758290979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02260845457088547</v>
+      </c>
+      <c r="E16">
+        <v>0.03635465302806658</v>
+      </c>
+      <c r="F16">
+        <v>-0.0002128470466280292</v>
+      </c>
+      <c r="G16">
+        <v>-0.0045661328547626</v>
+      </c>
+      <c r="H16">
+        <v>0.03634073415802568</v>
+      </c>
+      <c r="I16">
+        <v>-0.04176168987700706</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.008520223240848043</v>
+        <v>0.003212585360612867</v>
       </c>
       <c r="C19">
-        <v>0.01975744809653977</v>
+        <v>-0.01495685417870964</v>
       </c>
       <c r="D19">
-        <v>-0.03197074798022276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.003213367232213194</v>
+      </c>
+      <c r="E19">
+        <v>0.01580360339945662</v>
+      </c>
+      <c r="F19">
+        <v>-0.00923734716585818</v>
+      </c>
+      <c r="G19">
+        <v>-0.003573581549017252</v>
+      </c>
+      <c r="H19">
+        <v>-0.01975745326559507</v>
+      </c>
+      <c r="I19">
+        <v>-0.02832128331507346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.002323271723469256</v>
+        <v>0.001666950797342824</v>
       </c>
       <c r="C20">
-        <v>0.04590636664620299</v>
+        <v>-0.06536025519572114</v>
       </c>
       <c r="D20">
-        <v>-0.06176671122694546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04088603714506815</v>
+      </c>
+      <c r="E20">
+        <v>0.0618829882406604</v>
+      </c>
+      <c r="F20">
+        <v>0.009743559240013071</v>
+      </c>
+      <c r="G20">
+        <v>0.0125670475823159</v>
+      </c>
+      <c r="H20">
+        <v>0.06054414577800105</v>
+      </c>
+      <c r="I20">
+        <v>-0.06343346450009754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01202727128025712</v>
+        <v>0.006936005805038746</v>
       </c>
       <c r="C21">
-        <v>0.06586203635186261</v>
+        <v>-0.07411732229325109</v>
       </c>
       <c r="D21">
-        <v>-0.08413499315235776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03841449982955954</v>
+      </c>
+      <c r="E21">
+        <v>0.0766335825590366</v>
+      </c>
+      <c r="F21">
+        <v>0.06043398065821993</v>
+      </c>
+      <c r="G21">
+        <v>-0.1089067824866268</v>
+      </c>
+      <c r="H21">
+        <v>-0.006755429740714284</v>
+      </c>
+      <c r="I21">
+        <v>-0.1928530994317523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.003810381895109354</v>
+        <v>-0.01180452384996502</v>
       </c>
       <c r="C22">
-        <v>0.07627744353593707</v>
+        <v>-0.1069018801581218</v>
       </c>
       <c r="D22">
-        <v>-0.1975904882303975</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1743061365579187</v>
+      </c>
+      <c r="E22">
+        <v>0.1567255633195136</v>
+      </c>
+      <c r="F22">
+        <v>0.2754012205982961</v>
+      </c>
+      <c r="G22">
+        <v>0.1385646023570848</v>
+      </c>
+      <c r="H22">
+        <v>-0.2446641340076474</v>
+      </c>
+      <c r="I22">
+        <v>0.4104427371096152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.003870950520239478</v>
+        <v>-0.008572731569355101</v>
       </c>
       <c r="C23">
-        <v>0.07741315525767235</v>
+        <v>-0.1096930721404152</v>
       </c>
       <c r="D23">
-        <v>-0.1970124466972442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1765751215810868</v>
+      </c>
+      <c r="E23">
+        <v>0.1537807823003372</v>
+      </c>
+      <c r="F23">
+        <v>0.2708274822666177</v>
+      </c>
+      <c r="G23">
+        <v>0.1313096779144963</v>
+      </c>
+      <c r="H23">
+        <v>-0.2344043972644256</v>
+      </c>
+      <c r="I23">
+        <v>0.3835538501388241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.01056009325540797</v>
+        <v>0.01123384332190278</v>
       </c>
       <c r="C24">
-        <v>0.06723457236529409</v>
+        <v>-0.0751405226177468</v>
       </c>
       <c r="D24">
-        <v>-0.05213199767828131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.01633797070046506</v>
+      </c>
+      <c r="E24">
+        <v>0.0502790067244386</v>
+      </c>
+      <c r="F24">
+        <v>0.0005494135109299145</v>
+      </c>
+      <c r="G24">
+        <v>-1.327183717647096e-05</v>
+      </c>
+      <c r="H24">
+        <v>0.02635860663940823</v>
+      </c>
+      <c r="I24">
+        <v>-0.06178667206709289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.01333841741353283</v>
+        <v>0.01561239209822087</v>
       </c>
       <c r="C25">
-        <v>0.05752353657675303</v>
+        <v>-0.06801485088451092</v>
       </c>
       <c r="D25">
-        <v>-0.0420889703314612</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01854112685200241</v>
+      </c>
+      <c r="E25">
+        <v>0.03798894422001044</v>
+      </c>
+      <c r="F25">
+        <v>0.005281582271216487</v>
+      </c>
+      <c r="G25">
+        <v>0.004816727755781292</v>
+      </c>
+      <c r="H25">
+        <v>0.03431596963569952</v>
+      </c>
+      <c r="I25">
+        <v>-0.04153582176615365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.007512491432130586</v>
+        <v>0.01689735354851708</v>
       </c>
       <c r="C26">
-        <v>0.03236485883784032</v>
+        <v>-0.05027321496760841</v>
       </c>
       <c r="D26">
-        <v>-0.05236814547356879</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.00264672231977574</v>
+      </c>
+      <c r="E26">
+        <v>0.08344037953046071</v>
+      </c>
+      <c r="F26">
+        <v>0.03456512556400883</v>
+      </c>
+      <c r="G26">
+        <v>-0.009848405614666739</v>
+      </c>
+      <c r="H26">
+        <v>0.02803993784794838</v>
+      </c>
+      <c r="I26">
+        <v>-0.1240287074107648</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.3040227020644822</v>
+        <v>0.3145389220274699</v>
       </c>
       <c r="C28">
-        <v>-0.1280533889584161</v>
+        <v>0.09552712721876253</v>
       </c>
       <c r="D28">
-        <v>0.02810000376183592</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01302261051153607</v>
+      </c>
+      <c r="E28">
+        <v>-0.03150153104183763</v>
+      </c>
+      <c r="F28">
+        <v>0.05770490780524572</v>
+      </c>
+      <c r="G28">
+        <v>0.04589716329925569</v>
+      </c>
+      <c r="H28">
+        <v>-0.03989783104488062</v>
+      </c>
+      <c r="I28">
+        <v>-0.07003570182326405</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002517041534648025</v>
+        <v>0.003240384876953166</v>
       </c>
       <c r="C29">
-        <v>0.03628701424468898</v>
+        <v>-0.06045609843447954</v>
       </c>
       <c r="D29">
-        <v>-0.06858482173708941</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.04352655864713714</v>
+      </c>
+      <c r="E29">
+        <v>0.1067582153628086</v>
+      </c>
+      <c r="F29">
+        <v>0.02434046502530164</v>
+      </c>
+      <c r="G29">
+        <v>-0.06172222760243198</v>
+      </c>
+      <c r="H29">
+        <v>0.08109423353119782</v>
+      </c>
+      <c r="I29">
+        <v>-0.1778195976595442</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02215581528019102</v>
+        <v>0.01838411259523555</v>
       </c>
       <c r="C30">
-        <v>0.09734906846024356</v>
+        <v>-0.1192790622873491</v>
       </c>
       <c r="D30">
-        <v>-0.1286156557208687</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06544232685467002</v>
+      </c>
+      <c r="E30">
+        <v>0.1105132791892798</v>
+      </c>
+      <c r="F30">
+        <v>0.06060953163554772</v>
+      </c>
+      <c r="G30">
+        <v>0.01632851537090727</v>
+      </c>
+      <c r="H30">
+        <v>0.01000675827659353</v>
+      </c>
+      <c r="I30">
+        <v>-0.02846127062084342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01351958202146038</v>
+        <v>0.008893350306886387</v>
       </c>
       <c r="C31">
-        <v>0.09684244515669604</v>
+        <v>-0.1018767592098804</v>
       </c>
       <c r="D31">
-        <v>-0.03388481281046417</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0009970000785287883</v>
+      </c>
+      <c r="E31">
+        <v>0.02718749199107596</v>
+      </c>
+      <c r="F31">
+        <v>0.0003720138471162423</v>
+      </c>
+      <c r="G31">
+        <v>3.629143130009104e-05</v>
+      </c>
+      <c r="H31">
+        <v>-0.02314701858084818</v>
+      </c>
+      <c r="I31">
+        <v>-0.05873691083231498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01853638516290198</v>
+        <v>0.01482565435016605</v>
       </c>
       <c r="C32">
-        <v>0.0533126150449954</v>
+        <v>-0.06146169227190194</v>
       </c>
       <c r="D32">
-        <v>-0.09104435311622674</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03967648821814301</v>
+      </c>
+      <c r="E32">
+        <v>0.05889588140289317</v>
+      </c>
+      <c r="F32">
+        <v>0.1097969847566598</v>
+      </c>
+      <c r="G32">
+        <v>-0.04449127516041196</v>
+      </c>
+      <c r="H32">
+        <v>0.007981915537239731</v>
+      </c>
+      <c r="I32">
+        <v>-0.1113950115535517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.005586072837661125</v>
+        <v>0.008702842041572088</v>
       </c>
       <c r="C33">
-        <v>0.06334060580504257</v>
+        <v>-0.08778754070893553</v>
       </c>
       <c r="D33">
-        <v>-0.08433097028433656</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.05258292541089083</v>
+      </c>
+      <c r="E33">
+        <v>0.07954996901209484</v>
+      </c>
+      <c r="F33">
+        <v>0.02238143972855387</v>
+      </c>
+      <c r="G33">
+        <v>-0.00301655133141204</v>
+      </c>
+      <c r="H33">
+        <v>0.03565141246996104</v>
+      </c>
+      <c r="I33">
+        <v>-0.05940389121528702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01092659876649848</v>
+        <v>0.01221237626225654</v>
       </c>
       <c r="C34">
-        <v>0.06461913414204698</v>
+        <v>-0.06432765001318512</v>
       </c>
       <c r="D34">
-        <v>-0.06421936780220193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.01640676990106622</v>
+      </c>
+      <c r="E34">
+        <v>0.04431527726424323</v>
+      </c>
+      <c r="F34">
+        <v>-0.02747549124690991</v>
+      </c>
+      <c r="G34">
+        <v>-0.006298506128028185</v>
+      </c>
+      <c r="H34">
+        <v>0.009537356464685171</v>
+      </c>
+      <c r="I34">
+        <v>-0.02953122698962757</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.00153858078253492</v>
+        <v>0.004985590368961156</v>
       </c>
       <c r="C35">
-        <v>0.001801991748218247</v>
+        <v>-0.02373523995608127</v>
       </c>
       <c r="D35">
-        <v>-0.006944504178741846</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01818880148786411</v>
+      </c>
+      <c r="E35">
+        <v>0.03389121510568217</v>
+      </c>
+      <c r="F35">
+        <v>0.02093948434234552</v>
+      </c>
+      <c r="G35">
+        <v>-0.01631736778862232</v>
+      </c>
+      <c r="H35">
+        <v>0.05042768397204282</v>
+      </c>
+      <c r="I35">
+        <v>-0.1062747995632861</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.004390263563061068</v>
+        <v>0.009359242719591234</v>
       </c>
       <c r="C36">
-        <v>0.02997496302127596</v>
+        <v>-0.04098920776401195</v>
       </c>
       <c r="D36">
-        <v>-0.04147693351990304</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01179425290918133</v>
+      </c>
+      <c r="E36">
+        <v>0.06645377458774319</v>
+      </c>
+      <c r="F36">
+        <v>0.03940533547477545</v>
+      </c>
+      <c r="G36">
+        <v>-0.008532816229631002</v>
+      </c>
+      <c r="H36">
+        <v>0.02918957238231776</v>
+      </c>
+      <c r="I36">
+        <v>-0.07333213295171745</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.005685498174849962</v>
+        <v>0.00728467175278766</v>
       </c>
       <c r="C38">
-        <v>0.01868843175158011</v>
+        <v>-0.04315414507421618</v>
       </c>
       <c r="D38">
-        <v>-0.06656435923680919</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.04011009405260333</v>
+      </c>
+      <c r="E38">
+        <v>0.07773335701429666</v>
+      </c>
+      <c r="F38">
+        <v>0.01508589451481347</v>
+      </c>
+      <c r="G38">
+        <v>0.04738876517273196</v>
+      </c>
+      <c r="H38">
+        <v>0.000425977288713529</v>
+      </c>
+      <c r="I38">
+        <v>-0.0781236772438149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01186466098995324</v>
+        <v>0.008973532858405799</v>
       </c>
       <c r="C39">
-        <v>0.08020164905443371</v>
+        <v>-0.1046790152027397</v>
       </c>
       <c r="D39">
-        <v>-0.1017492555877255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.0355377098507076</v>
+      </c>
+      <c r="E39">
+        <v>0.09184005445011295</v>
+      </c>
+      <c r="F39">
+        <v>-0.002175785870799405</v>
+      </c>
+      <c r="G39">
+        <v>-0.01559975712154497</v>
+      </c>
+      <c r="H39">
+        <v>0.03932742556022698</v>
+      </c>
+      <c r="I39">
+        <v>-0.05807266920379853</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.003981454427373096</v>
+        <v>0.008198989129890222</v>
       </c>
       <c r="C40">
-        <v>0.02892522556856663</v>
+        <v>-0.05144953911319187</v>
       </c>
       <c r="D40">
-        <v>-0.1013911511764264</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.06437025186332754</v>
+      </c>
+      <c r="E40">
+        <v>0.1170387316328577</v>
+      </c>
+      <c r="F40">
+        <v>-0.007980051521615709</v>
+      </c>
+      <c r="G40">
+        <v>-0.02360792880850567</v>
+      </c>
+      <c r="H40">
+        <v>0.03145331332876262</v>
+      </c>
+      <c r="I40">
+        <v>-0.01120767144290099</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.007327804274975483</v>
+        <v>0.0168167265437042</v>
       </c>
       <c r="C41">
-        <v>0.02213527671305449</v>
+        <v>-0.04048903993884141</v>
       </c>
       <c r="D41">
-        <v>-0.01703957100711698</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01552847128599539</v>
+      </c>
+      <c r="E41">
+        <v>0.01801087339013466</v>
+      </c>
+      <c r="F41">
+        <v>-0.009879247496750381</v>
+      </c>
+      <c r="G41">
+        <v>0.006653258939320837</v>
+      </c>
+      <c r="H41">
+        <v>0.01108733707525698</v>
+      </c>
+      <c r="I41">
+        <v>-0.04548978634661921</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.004163988627245322</v>
+        <v>0.007796398222304018</v>
       </c>
       <c r="C43">
-        <v>0.01800705736634413</v>
+        <v>-0.03357945421265855</v>
       </c>
       <c r="D43">
-        <v>-0.03526172013506033</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01748581397969293</v>
+      </c>
+      <c r="E43">
+        <v>0.0418952760593229</v>
+      </c>
+      <c r="F43">
+        <v>0.0007138209700901069</v>
+      </c>
+      <c r="G43">
+        <v>0.0111387035422334</v>
+      </c>
+      <c r="H43">
+        <v>0.01980805190588761</v>
+      </c>
+      <c r="I43">
+        <v>-0.05519665160604226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01474681567298907</v>
+        <v>0.00640202049137862</v>
       </c>
       <c r="C44">
-        <v>0.05982225969990644</v>
+        <v>-0.07653623874965808</v>
       </c>
       <c r="D44">
-        <v>-0.08447359982358484</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03827277941756318</v>
+      </c>
+      <c r="E44">
+        <v>0.09856756720677684</v>
+      </c>
+      <c r="F44">
+        <v>0.04547816132246842</v>
+      </c>
+      <c r="G44">
+        <v>0.008914158583938004</v>
+      </c>
+      <c r="H44">
+        <v>-0.005011711543603714</v>
+      </c>
+      <c r="I44">
+        <v>-0.027166092377316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.001511000703859973</v>
+        <v>-0.002092152268062962</v>
       </c>
       <c r="C46">
-        <v>0.04504731180219463</v>
+        <v>-0.05462694779873208</v>
       </c>
       <c r="D46">
-        <v>-0.07098813189773608</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.02227333117480432</v>
+      </c>
+      <c r="E46">
+        <v>0.08470019502145384</v>
+      </c>
+      <c r="F46">
+        <v>0.01871935428469093</v>
+      </c>
+      <c r="G46">
+        <v>-0.01472183702185459</v>
+      </c>
+      <c r="H46">
+        <v>0.05061676974338525</v>
+      </c>
+      <c r="I46">
+        <v>-0.1134120246418389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.04438253251794669</v>
+        <v>0.02759882548503495</v>
       </c>
       <c r="C47">
-        <v>0.1233951312501644</v>
+        <v>-0.1198372740852243</v>
       </c>
       <c r="D47">
-        <v>-0.03665760261846966</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.007933711446729833</v>
+      </c>
+      <c r="E47">
+        <v>0.01466335918151193</v>
+      </c>
+      <c r="F47">
+        <v>-0.00618958630957281</v>
+      </c>
+      <c r="G47">
+        <v>0.01056073355015021</v>
+      </c>
+      <c r="H47">
+        <v>-0.006798362497556159</v>
+      </c>
+      <c r="I47">
+        <v>-0.08750871420440592</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.00619873691605492</v>
+        <v>0.01268546611689097</v>
       </c>
       <c r="C48">
-        <v>0.03575027804190401</v>
+        <v>-0.04849619797474416</v>
       </c>
       <c r="D48">
-        <v>-0.04403124415011041</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002775401988466477</v>
+      </c>
+      <c r="E48">
+        <v>0.07717665409886343</v>
+      </c>
+      <c r="F48">
+        <v>0.04832662155893246</v>
+      </c>
+      <c r="G48">
+        <v>-0.002443122280107753</v>
+      </c>
+      <c r="H48">
+        <v>0.03374711714581271</v>
+      </c>
+      <c r="I48">
+        <v>-0.1180339304266489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002808333478256795</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.005989554372209466</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.001355226080456597</v>
+      </c>
+      <c r="E49">
+        <v>0.002859876275623063</v>
+      </c>
+      <c r="F49">
+        <v>-0.01310872170873204</v>
+      </c>
+      <c r="G49">
+        <v>-0.007838900891402297</v>
+      </c>
+      <c r="H49">
+        <v>0.01457033337049954</v>
+      </c>
+      <c r="I49">
+        <v>0.00902917034749846</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.01211326787765766</v>
+        <v>0.009279402383073902</v>
       </c>
       <c r="C50">
-        <v>0.0649164372623134</v>
+        <v>-0.07828318434519731</v>
       </c>
       <c r="D50">
-        <v>-0.04492188575936276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01759621422236556</v>
+      </c>
+      <c r="E50">
+        <v>0.03409490129139032</v>
+      </c>
+      <c r="F50">
+        <v>0.009801233835777948</v>
+      </c>
+      <c r="G50">
+        <v>0.008997705370441761</v>
+      </c>
+      <c r="H50">
+        <v>-0.01510197166649915</v>
+      </c>
+      <c r="I50">
+        <v>-0.06170023030420016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.003691259339558112</v>
+        <v>-0.006204094063727981</v>
       </c>
       <c r="C51">
-        <v>0.01762454187407705</v>
+        <v>-0.02852781640488122</v>
       </c>
       <c r="D51">
-        <v>-0.06133229722216754</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01676840074603498</v>
+      </c>
+      <c r="E51">
+        <v>0.05596249518135764</v>
+      </c>
+      <c r="F51">
+        <v>0.05044372232016874</v>
+      </c>
+      <c r="G51">
+        <v>-0.01807305326735676</v>
+      </c>
+      <c r="H51">
+        <v>-0.0004481701226411355</v>
+      </c>
+      <c r="I51">
+        <v>-0.09777115556782316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.08258372811669921</v>
+        <v>0.06030362756007263</v>
       </c>
       <c r="C53">
-        <v>0.1556294884732917</v>
+        <v>-0.1634821776021859</v>
       </c>
       <c r="D53">
-        <v>0.00736089774734835</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04361608480484128</v>
+      </c>
+      <c r="E53">
+        <v>-0.04516936812083754</v>
+      </c>
+      <c r="F53">
+        <v>-0.02261416756564748</v>
+      </c>
+      <c r="G53">
+        <v>0.01501602375703127</v>
+      </c>
+      <c r="H53">
+        <v>-0.03116718362561969</v>
+      </c>
+      <c r="I53">
+        <v>-0.02563087382795437</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.001115405652179484</v>
+        <v>0.01019966695083671</v>
       </c>
       <c r="C54">
-        <v>0.04004567896680122</v>
+        <v>-0.05554757868291316</v>
       </c>
       <c r="D54">
-        <v>-0.08221738176828584</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.04929030417279704</v>
+      </c>
+      <c r="E54">
+        <v>0.05838693681901438</v>
+      </c>
+      <c r="F54">
+        <v>0.01270869809624447</v>
+      </c>
+      <c r="G54">
+        <v>0.003785533362825704</v>
+      </c>
+      <c r="H54">
+        <v>0.01010839234748972</v>
+      </c>
+      <c r="I54">
+        <v>-0.09792804315150186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.05797403292548512</v>
+        <v>0.0367495168446993</v>
       </c>
       <c r="C55">
-        <v>0.1157682898170534</v>
+        <v>-0.1180745030900291</v>
       </c>
       <c r="D55">
-        <v>0.005935622560884056</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05287290913901931</v>
+      </c>
+      <c r="E55">
+        <v>-0.01666917167494222</v>
+      </c>
+      <c r="F55">
+        <v>-0.03258057467074559</v>
+      </c>
+      <c r="G55">
+        <v>0.002593595431854611</v>
+      </c>
+      <c r="H55">
+        <v>-0.03983524336206799</v>
+      </c>
+      <c r="I55">
+        <v>-0.02648938866217342</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.08993538135259706</v>
+        <v>0.05700548676391103</v>
       </c>
       <c r="C56">
-        <v>0.1782110675129257</v>
+        <v>-0.1877117767760698</v>
       </c>
       <c r="D56">
-        <v>-0.02163984154575934</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05533183277075907</v>
+      </c>
+      <c r="E56">
+        <v>-0.03509896821661026</v>
+      </c>
+      <c r="F56">
+        <v>-0.06898447645404979</v>
+      </c>
+      <c r="G56">
+        <v>0.0195590683838608</v>
+      </c>
+      <c r="H56">
+        <v>-0.1188980382217652</v>
+      </c>
+      <c r="I56">
+        <v>-0.01949564849012741</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2344,373 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01719578793602911</v>
+        <v>0.009502456451467049</v>
       </c>
       <c r="C58">
-        <v>0.06311044885638785</v>
+        <v>-0.1132112430937736</v>
       </c>
       <c r="D58">
-        <v>-0.1848302893778385</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1596377636043217</v>
+      </c>
+      <c r="E58">
+        <v>0.1459160638957261</v>
+      </c>
+      <c r="F58">
+        <v>0.268175114500862</v>
+      </c>
+      <c r="G58">
+        <v>0.06508771754751845</v>
+      </c>
+      <c r="H58">
+        <v>-0.1307043136098922</v>
+      </c>
+      <c r="I58">
+        <v>0.06974597558448815</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.2343280509075233</v>
+        <v>0.2675029391279039</v>
       </c>
       <c r="C59">
-        <v>-0.07526273100970098</v>
+        <v>0.04771210179808374</v>
       </c>
       <c r="D59">
-        <v>-0.05322272073530066</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02433873971954518</v>
+      </c>
+      <c r="E59">
+        <v>0.02647984843317145</v>
+      </c>
+      <c r="F59">
+        <v>0.0261951646202167</v>
+      </c>
+      <c r="G59">
+        <v>-0.01787811645119713</v>
+      </c>
+      <c r="H59">
+        <v>-0.003890893962868063</v>
+      </c>
+      <c r="I59">
+        <v>0.02377744837105044</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1467752866762078</v>
+        <v>0.1491818693230229</v>
       </c>
       <c r="C60">
-        <v>0.1299986237205685</v>
+        <v>-0.1575548252389615</v>
       </c>
       <c r="D60">
-        <v>-0.09692921183680443</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.0412258593422219</v>
+      </c>
+      <c r="E60">
+        <v>0.07361533475006195</v>
+      </c>
+      <c r="F60">
+        <v>-0.2025501763517114</v>
+      </c>
+      <c r="G60">
+        <v>-0.1058610965051395</v>
+      </c>
+      <c r="H60">
+        <v>0.2043498620880688</v>
+      </c>
+      <c r="I60">
+        <v>0.2785092117283237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.01813531485567817</v>
+        <v>0.01580621376222745</v>
       </c>
       <c r="C61">
-        <v>0.06813742328535186</v>
+        <v>-0.0905240811507823</v>
       </c>
       <c r="D61">
-        <v>-0.07286351266551008</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.02413250131342527</v>
+      </c>
+      <c r="E61">
+        <v>0.07232023942851015</v>
+      </c>
+      <c r="F61">
+        <v>-0.01570531206032073</v>
+      </c>
+      <c r="G61">
+        <v>-0.002490276706091353</v>
+      </c>
+      <c r="H61">
+        <v>0.0314018890122546</v>
+      </c>
+      <c r="I61">
+        <v>-0.06796383397008474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0003276464021483641</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.0009214883304177305</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0001805451705643424</v>
+      </c>
+      <c r="E62">
+        <v>5.424130643658346e-05</v>
+      </c>
+      <c r="F62">
+        <v>0.001779444541918076</v>
+      </c>
+      <c r="G62">
+        <v>0.0001032814669648237</v>
+      </c>
+      <c r="H62">
+        <v>-0.0009219799420489935</v>
+      </c>
+      <c r="I62">
+        <v>-0.002286222973876446</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.003328009596593539</v>
+        <v>0.01668264499715725</v>
       </c>
       <c r="C63">
-        <v>0.04841681198922312</v>
+        <v>-0.06442196279056576</v>
       </c>
       <c r="D63">
-        <v>-0.0604942735343381</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01300193345474557</v>
+      </c>
+      <c r="E63">
+        <v>0.07502160688196544</v>
+      </c>
+      <c r="F63">
+        <v>0.007167716425092632</v>
+      </c>
+      <c r="G63">
+        <v>-0.005752467423569762</v>
+      </c>
+      <c r="H63">
+        <v>0.02941619673280072</v>
+      </c>
+      <c r="I63">
+        <v>-0.07271403083209695</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.03195806865831778</v>
+        <v>0.0167622736384557</v>
       </c>
       <c r="C64">
-        <v>0.1093672245270726</v>
+        <v>-0.1061347545048181</v>
       </c>
       <c r="D64">
-        <v>-0.01368449548122609</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01269141304291927</v>
+      </c>
+      <c r="E64">
+        <v>0.02333772475694613</v>
+      </c>
+      <c r="F64">
+        <v>0.01691803046723122</v>
+      </c>
+      <c r="G64">
+        <v>0.01643511947101464</v>
+      </c>
+      <c r="H64">
+        <v>0.0559348851675239</v>
+      </c>
+      <c r="I64">
+        <v>0.01558722508690459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.01832374658230774</v>
+        <v>0.02328573604085665</v>
       </c>
       <c r="C65">
-        <v>0.04119194956938567</v>
+        <v>-0.0651938390654502</v>
       </c>
       <c r="D65">
-        <v>-0.08542436385298245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.06818393323414891</v>
+      </c>
+      <c r="E65">
+        <v>0.08871397244501307</v>
+      </c>
+      <c r="F65">
+        <v>0.005861533363258926</v>
+      </c>
+      <c r="G65">
+        <v>0.004539601610756212</v>
+      </c>
+      <c r="H65">
+        <v>0.0926204439003968</v>
+      </c>
+      <c r="I65">
+        <v>0.02716549200884736</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0191797990697169</v>
+        <v>0.01082171201943216</v>
       </c>
       <c r="C66">
-        <v>0.09809612125276289</v>
+        <v>-0.1296531579248951</v>
       </c>
       <c r="D66">
-        <v>-0.1307139145251939</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.06572783984758133</v>
+      </c>
+      <c r="E66">
+        <v>0.09833838687655409</v>
+      </c>
+      <c r="F66">
+        <v>0.008643139417150766</v>
+      </c>
+      <c r="G66">
+        <v>-0.005381462254658422</v>
+      </c>
+      <c r="H66">
+        <v>0.008478455785723487</v>
+      </c>
+      <c r="I66">
+        <v>-0.0480060310051046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.01705936870720289</v>
+        <v>0.01721628548797229</v>
       </c>
       <c r="C67">
-        <v>0.02110070239024794</v>
+        <v>-0.04200528776856992</v>
       </c>
       <c r="D67">
-        <v>-0.03751716935781076</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01430258231995271</v>
+      </c>
+      <c r="E67">
+        <v>0.06362574187318044</v>
+      </c>
+      <c r="F67">
+        <v>-0.02423230014747257</v>
+      </c>
+      <c r="G67">
+        <v>0.03854320101723224</v>
+      </c>
+      <c r="H67">
+        <v>0.01792048673429222</v>
+      </c>
+      <c r="I67">
+        <v>-0.06256769337082188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2335570187360764</v>
+        <v>0.2771994060339077</v>
       </c>
       <c r="C68">
-        <v>-0.08983785376005372</v>
+        <v>0.05916122361672201</v>
       </c>
       <c r="D68">
-        <v>-0.02190407860167526</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.04291141424191643</v>
+      </c>
+      <c r="E68">
+        <v>0.01143214411710791</v>
+      </c>
+      <c r="F68">
+        <v>0.0470224626878318</v>
+      </c>
+      <c r="G68">
+        <v>0.01432187735288509</v>
+      </c>
+      <c r="H68">
+        <v>-0.03688501898936647</v>
+      </c>
+      <c r="I68">
+        <v>0.005923624755414608</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.03511382882326849</v>
+        <v>0.01388695581584536</v>
       </c>
       <c r="C69">
-        <v>0.1264844506453384</v>
+        <v>-0.1082202931318504</v>
       </c>
       <c r="D69">
-        <v>-0.04802568402366136</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01745130034911519</v>
+      </c>
+      <c r="E69">
+        <v>0.02582231171644738</v>
+      </c>
+      <c r="F69">
+        <v>-0.01897559377343249</v>
+      </c>
+      <c r="G69">
+        <v>0.003033229587994707</v>
+      </c>
+      <c r="H69">
+        <v>-0.009481396550261402</v>
+      </c>
+      <c r="I69">
+        <v>-0.05273313707670144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2523115520633203</v>
+        <v>0.2684812596395941</v>
       </c>
       <c r="C71">
-        <v>-0.1143785066506449</v>
+        <v>0.07746643533294449</v>
       </c>
       <c r="D71">
-        <v>-0.0197466183175002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01884426390125974</v>
+      </c>
+      <c r="E71">
+        <v>0.02011677461388063</v>
+      </c>
+      <c r="F71">
+        <v>0.02055161007178888</v>
+      </c>
+      <c r="G71">
+        <v>0.03078306308857123</v>
+      </c>
+      <c r="H71">
+        <v>-0.005370168835659897</v>
+      </c>
+      <c r="I71">
+        <v>-0.07659541542117881</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.08103857462461642</v>
+        <v>0.06171919183824218</v>
       </c>
       <c r="C72">
-        <v>0.1158733044139833</v>
+        <v>-0.1347821194359949</v>
       </c>
       <c r="D72">
-        <v>-0.08549339006475652</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.01711148371524644</v>
+      </c>
+      <c r="E72">
+        <v>0.04891832175195982</v>
+      </c>
+      <c r="F72">
+        <v>-0.02862126181646129</v>
+      </c>
+      <c r="G72">
+        <v>-0.01364930499882004</v>
+      </c>
+      <c r="H72">
+        <v>0.03038992638103647</v>
+      </c>
+      <c r="I72">
+        <v>0.03005634223850429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1241969002714431</v>
+        <v>0.1439627383193916</v>
       </c>
       <c r="C73">
-        <v>0.1115379299827447</v>
+        <v>-0.1663776081405245</v>
       </c>
       <c r="D73">
-        <v>-0.1381908747710931</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.05384372454534114</v>
+      </c>
+      <c r="E73">
+        <v>0.1670087096121912</v>
+      </c>
+      <c r="F73">
+        <v>-0.2929524862117494</v>
+      </c>
+      <c r="G73">
+        <v>-0.1292303300768588</v>
+      </c>
+      <c r="H73">
+        <v>0.3201466433675335</v>
+      </c>
+      <c r="I73">
+        <v>0.3034296074380328</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.06922334845745126</v>
+        <v>0.04717152007903865</v>
       </c>
       <c r="C74">
-        <v>0.1376689713852738</v>
+        <v>-0.1365859221199009</v>
       </c>
       <c r="D74">
-        <v>0.05215510537408043</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0674717560102959</v>
+      </c>
+      <c r="E74">
+        <v>-0.04158640768171158</v>
+      </c>
+      <c r="F74">
+        <v>-0.01783500922088019</v>
+      </c>
+      <c r="G74">
+        <v>0.01201729431357043</v>
+      </c>
+      <c r="H74">
+        <v>-0.02117874857009388</v>
+      </c>
+      <c r="I74">
+        <v>-0.03281969573474602</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1731938058988572</v>
+        <v>0.09655705022335241</v>
       </c>
       <c r="C75">
-        <v>0.2327045445034257</v>
+        <v>-0.2394292578403151</v>
       </c>
       <c r="D75">
-        <v>0.02718362925722839</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1121848653371738</v>
+      </c>
+      <c r="E75">
+        <v>-0.1030771865289338</v>
+      </c>
+      <c r="F75">
+        <v>-0.1656338453516933</v>
+      </c>
+      <c r="G75">
+        <v>0.1254197332394666</v>
+      </c>
+      <c r="H75">
+        <v>-0.2078675581702676</v>
+      </c>
+      <c r="I75">
+        <v>-0.02954715885586488</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.09111438562218015</v>
+        <v>0.05494271942119704</v>
       </c>
       <c r="C76">
-        <v>0.1668283016513411</v>
+        <v>-0.1743633232343475</v>
       </c>
       <c r="D76">
-        <v>-0.009419383368018225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0627046018815751</v>
+      </c>
+      <c r="E76">
+        <v>-0.02641938148226402</v>
+      </c>
+      <c r="F76">
+        <v>-0.09295403330352041</v>
+      </c>
+      <c r="G76">
+        <v>0.01244788279831554</v>
+      </c>
+      <c r="H76">
+        <v>-0.067043999105926</v>
+      </c>
+      <c r="I76">
+        <v>-0.04964475649452581</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.03072518652432093</v>
+        <v>0.02377193854423251</v>
       </c>
       <c r="C77">
-        <v>0.08062214336630698</v>
+        <v>-0.1346594641015157</v>
       </c>
       <c r="D77">
-        <v>-0.2450538755643643</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.7769132129218899</v>
+      </c>
+      <c r="E77">
+        <v>-0.5844749215059578</v>
+      </c>
+      <c r="F77">
+        <v>-0.08376942397956637</v>
+      </c>
+      <c r="G77">
+        <v>0.03421332443811221</v>
+      </c>
+      <c r="H77">
+        <v>0.07282299878185179</v>
+      </c>
+      <c r="I77">
+        <v>-0.08251077393548797</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02739838239126697</v>
+        <v>0.02449399273863684</v>
       </c>
       <c r="C78">
-        <v>0.09635923500066117</v>
+        <v>-0.1069166467587717</v>
       </c>
       <c r="D78">
-        <v>-0.1194434884170518</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.01320498821204806</v>
+      </c>
+      <c r="E78">
+        <v>0.1005970379926535</v>
+      </c>
+      <c r="F78">
+        <v>0.05505076513661661</v>
+      </c>
+      <c r="G78">
+        <v>-0.02519450947153156</v>
+      </c>
+      <c r="H78">
+        <v>-0.08812077597095945</v>
+      </c>
+      <c r="I78">
+        <v>-0.1005619117137738</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.08856026693578026</v>
+        <v>0.05551723016637356</v>
       </c>
       <c r="C79">
-        <v>0.351934474563339</v>
+        <v>-0.2728114226609053</v>
       </c>
       <c r="D79">
-        <v>0.6763111213461972</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.3324772805736568</v>
+      </c>
+      <c r="E79">
+        <v>-0.4251926278690804</v>
+      </c>
+      <c r="F79">
+        <v>0.5922195740077958</v>
+      </c>
+      <c r="G79">
+        <v>-0.06894411987559859</v>
+      </c>
+      <c r="H79">
+        <v>0.4417142277682937</v>
+      </c>
+      <c r="I79">
+        <v>0.1189378811588543</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.002177240539409233</v>
+        <v>0.007853384550716054</v>
       </c>
       <c r="C80">
-        <v>0.05500201984250488</v>
+        <v>-0.05386159320262935</v>
       </c>
       <c r="D80">
-        <v>-0.03219800688267266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.002494970016552215</v>
+      </c>
+      <c r="E80">
+        <v>0.06382791184060946</v>
+      </c>
+      <c r="F80">
+        <v>-0.02524392931874665</v>
+      </c>
+      <c r="G80">
+        <v>-0.06959772698537715</v>
+      </c>
+      <c r="H80">
+        <v>0.02074061446816034</v>
+      </c>
+      <c r="I80">
+        <v>0.02398634696751123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.07953223960170848</v>
+        <v>0.03514590837578013</v>
       </c>
       <c r="C81">
-        <v>0.1536479647571442</v>
+        <v>-0.1533158739586861</v>
       </c>
       <c r="D81">
-        <v>0.06001920111300977</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07862351380667415</v>
+      </c>
+      <c r="E81">
+        <v>-0.06356362133540118</v>
+      </c>
+      <c r="F81">
+        <v>-0.02746010425066229</v>
+      </c>
+      <c r="G81">
+        <v>0.02417399379068512</v>
+      </c>
+      <c r="H81">
+        <v>-0.07287699407745528</v>
+      </c>
+      <c r="I81">
+        <v>-0.08089568636466311</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1347825152050771</v>
+        <v>0.07290103226577448</v>
       </c>
       <c r="C82">
-        <v>0.2396520325419335</v>
+        <v>-0.2162902011976137</v>
       </c>
       <c r="D82">
-        <v>0.02347774380790339</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.1153004430730211</v>
+      </c>
+      <c r="E82">
+        <v>-0.06337192212306134</v>
+      </c>
+      <c r="F82">
+        <v>-0.1103039542017567</v>
+      </c>
+      <c r="G82">
+        <v>0.01058365324694681</v>
+      </c>
+      <c r="H82">
+        <v>-0.1340707468467399</v>
+      </c>
+      <c r="I82">
+        <v>-0.09258281974648719</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.002544837722386446</v>
+        <v>0.003652511614508116</v>
       </c>
       <c r="C83">
-        <v>0.05158293683130209</v>
+        <v>-0.018907615534012</v>
       </c>
       <c r="D83">
-        <v>-0.03554644479969166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0401638987914636</v>
+      </c>
+      <c r="E83">
+        <v>-0.06710117693734496</v>
+      </c>
+      <c r="F83">
+        <v>0.06872328786269216</v>
+      </c>
+      <c r="G83">
+        <v>-0.8968243173831623</v>
+      </c>
+      <c r="H83">
+        <v>-0.2992063293646184</v>
+      </c>
+      <c r="I83">
+        <v>0.05460985467726669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.002503742144272936</v>
+        <v>-0.002976902158414252</v>
       </c>
       <c r="C84">
-        <v>0.01077323616998926</v>
+        <v>-0.02719327713548622</v>
       </c>
       <c r="D84">
-        <v>-0.02106147092902578</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02561282061477415</v>
+      </c>
+      <c r="E84">
+        <v>0.04396656910659001</v>
+      </c>
+      <c r="F84">
+        <v>0.05884404768114814</v>
+      </c>
+      <c r="G84">
+        <v>0.04892966265216007</v>
+      </c>
+      <c r="H84">
+        <v>-0.03401849922708571</v>
+      </c>
+      <c r="I84">
+        <v>-0.06915462203799189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.08482054739129244</v>
+        <v>0.04776324220045838</v>
       </c>
       <c r="C85">
-        <v>0.181874627050122</v>
+        <v>-0.1745039395899172</v>
       </c>
       <c r="D85">
-        <v>0.08423604959661041</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1226512597124054</v>
+      </c>
+      <c r="E85">
+        <v>-0.07961040700714044</v>
+      </c>
+      <c r="F85">
+        <v>-0.02786003327030221</v>
+      </c>
+      <c r="G85">
+        <v>0.02078348125523934</v>
+      </c>
+      <c r="H85">
+        <v>-0.06594246910115947</v>
+      </c>
+      <c r="I85">
+        <v>-0.03247549024308733</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.02855789849965314</v>
+        <v>0.01699667524504501</v>
       </c>
       <c r="C86">
-        <v>0.02897677420812741</v>
+        <v>-0.05783749576082779</v>
       </c>
       <c r="D86">
-        <v>-0.0850247935212613</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0553461215567309</v>
+      </c>
+      <c r="E86">
+        <v>0.04037123033844278</v>
+      </c>
+      <c r="F86">
+        <v>0.07558799406082324</v>
+      </c>
+      <c r="G86">
+        <v>0.04011457972912617</v>
+      </c>
+      <c r="H86">
+        <v>-0.02456611727953474</v>
+      </c>
+      <c r="I86">
+        <v>-0.0526922919437841</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02543199746437291</v>
+        <v>0.01526464365931771</v>
       </c>
       <c r="C87">
-        <v>0.06897515187484395</v>
+        <v>-0.08907339004944211</v>
       </c>
       <c r="D87">
-        <v>-0.1262358010628573</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07968268797801444</v>
+      </c>
+      <c r="E87">
+        <v>0.08382015483781981</v>
+      </c>
+      <c r="F87">
+        <v>0.08301579108822744</v>
+      </c>
+      <c r="G87">
+        <v>0.01599293139875585</v>
+      </c>
+      <c r="H87">
+        <v>-0.04363324290181049</v>
+      </c>
+      <c r="I87">
+        <v>-0.04133081106769559</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03645949790966064</v>
+        <v>0.03607198523736481</v>
       </c>
       <c r="C88">
-        <v>0.07635803044530748</v>
+        <v>-0.08283413422452925</v>
       </c>
       <c r="D88">
-        <v>-0.00387783331012829</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.00795550030930766</v>
+      </c>
+      <c r="E88">
+        <v>0.02171037519460394</v>
+      </c>
+      <c r="F88">
+        <v>-0.01889676616633688</v>
+      </c>
+      <c r="G88">
+        <v>0.005707526632354997</v>
+      </c>
+      <c r="H88">
+        <v>0.01962623302036652</v>
+      </c>
+      <c r="I88">
+        <v>-0.019234454372087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.413111946327011</v>
+        <v>0.4088972726110502</v>
       </c>
       <c r="C89">
-        <v>-0.2213317507908601</v>
+        <v>0.1563841920827903</v>
       </c>
       <c r="D89">
-        <v>0.02307160262881849</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02074955017265804</v>
+      </c>
+      <c r="E89">
+        <v>0.008570618451211619</v>
+      </c>
+      <c r="F89">
+        <v>0.1107716736650793</v>
+      </c>
+      <c r="G89">
+        <v>-0.09774490637827393</v>
+      </c>
+      <c r="H89">
+        <v>-0.0821872942215324</v>
+      </c>
+      <c r="I89">
+        <v>-0.01763531396293135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.3117262284425005</v>
+        <v>0.3237286500073089</v>
       </c>
       <c r="C90">
-        <v>-0.1533903994441522</v>
+        <v>0.09690353876077099</v>
       </c>
       <c r="D90">
-        <v>-0.0694349838376408</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.04015132530585325</v>
+      </c>
+      <c r="E90">
+        <v>0.04253219248168946</v>
+      </c>
+      <c r="F90">
+        <v>0.01362987133831629</v>
+      </c>
+      <c r="G90">
+        <v>0.01310658202115346</v>
+      </c>
+      <c r="H90">
+        <v>-0.02492010374758543</v>
+      </c>
+      <c r="I90">
+        <v>0.01298527673155387</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1023799193414417</v>
+        <v>0.0641081487544458</v>
       </c>
       <c r="C91">
-        <v>0.2181423112678075</v>
+        <v>-0.1901802482238362</v>
       </c>
       <c r="D91">
-        <v>0.07625036287942227</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.09366724752363648</v>
+      </c>
+      <c r="E91">
+        <v>-0.1024736939213752</v>
+      </c>
+      <c r="F91">
+        <v>-0.0129641645787945</v>
+      </c>
+      <c r="G91">
+        <v>-0.01305740408828493</v>
+      </c>
+      <c r="H91">
+        <v>-0.04404864866438916</v>
+      </c>
+      <c r="I91">
+        <v>-0.01799618363400777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.3157455639599617</v>
+        <v>0.3430336712658206</v>
       </c>
       <c r="C92">
-        <v>-0.1629225656353033</v>
+        <v>0.1241451640294768</v>
       </c>
       <c r="D92">
-        <v>0.01550054336427174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02489694407824723</v>
+      </c>
+      <c r="E92">
+        <v>-0.01601107939156494</v>
+      </c>
+      <c r="F92">
+        <v>0.06908369521600118</v>
+      </c>
+      <c r="G92">
+        <v>0.09732708634805876</v>
+      </c>
+      <c r="H92">
+        <v>0.0174673276899313</v>
+      </c>
+      <c r="I92">
+        <v>-0.04119908793531685</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.3180359879303897</v>
+        <v>0.324506091640083</v>
       </c>
       <c r="C93">
-        <v>-0.1590967658613633</v>
+        <v>0.1166451131323366</v>
       </c>
       <c r="D93">
-        <v>0.04279400719400624</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02990250782853115</v>
+      </c>
+      <c r="E93">
+        <v>-0.0139542629392039</v>
+      </c>
+      <c r="F93">
+        <v>0.02789204375722887</v>
+      </c>
+      <c r="G93">
+        <v>0.02085961482735656</v>
+      </c>
+      <c r="H93">
+        <v>-0.001630407060454508</v>
+      </c>
+      <c r="I93">
+        <v>-0.0425065369355839</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1743955464282654</v>
+        <v>0.1145350765737181</v>
       </c>
       <c r="C94">
-        <v>0.2607277422151157</v>
+        <v>-0.2565850528919059</v>
       </c>
       <c r="D94">
-        <v>0.0823310973959762</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1799195911172813</v>
+      </c>
+      <c r="E94">
+        <v>-0.1960931158292725</v>
+      </c>
+      <c r="F94">
+        <v>-0.2022931495461975</v>
+      </c>
+      <c r="G94">
+        <v>0.09839597099821555</v>
+      </c>
+      <c r="H94">
+        <v>-0.4011469397010779</v>
+      </c>
+      <c r="I94">
+        <v>0.1006181220864446</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03803760822816504</v>
+        <v>0.03734814134381897</v>
       </c>
       <c r="C95">
-        <v>0.05118629312982472</v>
+        <v>-0.09263771384629717</v>
       </c>
       <c r="D95">
-        <v>-0.07237531215783002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.04813658658807254</v>
+      </c>
+      <c r="E95">
+        <v>0.07268038026654276</v>
+      </c>
+      <c r="F95">
+        <v>-0.09390048686697614</v>
+      </c>
+      <c r="G95">
+        <v>0.03396522325639985</v>
+      </c>
+      <c r="H95">
+        <v>0.05420676882176412</v>
+      </c>
+      <c r="I95">
+        <v>-0.07786742564524268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002185212067725903</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.00181421953684842</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.002918439847761819</v>
+      </c>
+      <c r="E97">
+        <v>0.008152679435183609</v>
+      </c>
+      <c r="F97">
+        <v>0.0007871297482106012</v>
+      </c>
+      <c r="G97">
+        <v>0.006735391579542752</v>
+      </c>
+      <c r="H97">
+        <v>0.00330165132961852</v>
+      </c>
+      <c r="I97">
+        <v>-0.001197380574050471</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1096689383221127</v>
+        <v>0.1278596184452733</v>
       </c>
       <c r="C98">
-        <v>0.09979061489626795</v>
+        <v>-0.1435216513589399</v>
       </c>
       <c r="D98">
-        <v>-0.1080177662965399</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.03188701557279031</v>
+      </c>
+      <c r="E98">
+        <v>0.1213076918575145</v>
+      </c>
+      <c r="F98">
+        <v>-0.2243818846346973</v>
+      </c>
+      <c r="G98">
+        <v>-0.08515973324422325</v>
+      </c>
+      <c r="H98">
+        <v>0.2851331635446926</v>
+      </c>
+      <c r="I98">
+        <v>0.3066260968865701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.003574354605872264</v>
+        <v>0.003366577904718976</v>
       </c>
       <c r="C101">
-        <v>0.03555599597844661</v>
+        <v>-0.0593455161986747</v>
       </c>
       <c r="D101">
-        <v>-0.0683436285276042</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.04366369548080956</v>
+      </c>
+      <c r="E101">
+        <v>0.1054868680928619</v>
+      </c>
+      <c r="F101">
+        <v>0.02416867772262876</v>
+      </c>
+      <c r="G101">
+        <v>-0.06112077443428451</v>
+      </c>
+      <c r="H101">
+        <v>0.07985938553341929</v>
+      </c>
+      <c r="I101">
+        <v>-0.1767603697458778</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.05890547864419447</v>
+        <v>0.02153557153098094</v>
       </c>
       <c r="C102">
-        <v>0.120338775312319</v>
+        <v>-0.08682169818660614</v>
       </c>
       <c r="D102">
-        <v>0.0008253923898710324</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04685126935761321</v>
+      </c>
+      <c r="E102">
+        <v>-0.04431119463797592</v>
+      </c>
+      <c r="F102">
+        <v>-0.0403260656371562</v>
+      </c>
+      <c r="G102">
+        <v>-0.006785642684694304</v>
+      </c>
+      <c r="H102">
+        <v>-0.05947059341933629</v>
+      </c>
+      <c r="I102">
+        <v>-0.01795437033873539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
